--- a/public/data/players.xlsx
+++ b/public/data/players.xlsx
@@ -76,7 +76,7 @@
     <t>Manchester FC</t>
   </si>
   <si>
-    <t>€10</t>
+    <t>€20</t>
   </si>
   <si>
     <t>1766011740278-1669691064708.jpg</t>
